--- a/pred_ohlcv/54_21/2019-10-28 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BCH ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-14.68768631999975</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-132.1603863199998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-122.0794153199998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-122.0794153199998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-215.1589153199997</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-227.4442153199998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-190.3542153199998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-171.9064153199998</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-161.8818153199998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-159.1079153199998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-191.0772153199998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-174.5768738599998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-174.5768738599998</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-287.2312738599998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-268.3561738599999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-339.1599938699998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-333.4718938699998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-333.4718938699998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-301.4467938699998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-342.9309938699998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-285.3473938699998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-160.4389938699998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-234.1785938699998</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>162.9771915800002</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>91.22536027000011</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7.588660270000105</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>729.72708922</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>672.00708922</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>694.5566892200001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>694.5566892200001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>652.6765892200001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>652.6765892200001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>659.1575892200001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>747.6229892200001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>954.2908892200002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1083.27028922</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1053.53428922</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>702.4700892200002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>760.6774892200002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1760.25609976</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1689.71479976</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1683.74639976</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1778.03719976</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1778.03719976</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1780.53009976</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1600.12469976</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1658.42469976</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1632.90219648</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1553.54289648</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1280.408098469999</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>1530.938752359999</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>2562.80508321</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>2431.35858321</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>2521.22238321</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>2740.90168321</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>2692.141034759999</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>2620.619634759999</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>2389.553934759999</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>2188.438234759999</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>2278.348034759999</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>2343.143634759999</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>2338.835634759999</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>2331.173034759999</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>2348.185534759999</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>2348.185534759999</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>2384.335791009999</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>2346.545091009999</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>2332.235891009999</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>2321.560491009999</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>2250.355027889999</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>2270.054227889999</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>2065.045127889999</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>1961.533527889999</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>2002.273127889999</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>1993.334627889999</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>1993.334627889999</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>1942.249227889999</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>1884.573127889999</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BCH ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-227.4442153199998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-161.8818153199998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-191.0772153199998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-191.0772153199998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-174.5768738599998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-174.5768738599998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-287.2312738599998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-290.3901738599998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-350.6726938699999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-339.1599938699998</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-333.4718938699998</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-333.4718938699998</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-301.4467938699998</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-276.9678938699998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-160.4389938699998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-206.5848938699998</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-234.1785938699998</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>91.22536027000011</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7.588660270000105</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>729.72708922</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>672.00708922</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>694.5566892200001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>694.5566892200001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>652.6765892200001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>652.6765892200001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>659.1575892200001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>747.6229892200001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>954.2908892200002</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1083.27028922</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1053.53428922</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>702.4700892200002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>760.6774892200002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1760.25609976</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1689.71479976</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1683.74639976</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1778.03719976</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1778.03719976</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1780.53009976</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1600.12469976</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1658.42469976</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1632.90219648</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1553.54289648</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1280.408098469999</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>1530.938752359999</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>2330.200083209999</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>2179.412083209999</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>2562.80508321</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>2431.35858321</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>2521.22238321</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>2740.90168321</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>2692.141034759999</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>2620.619634759999</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>2389.553934759999</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>2188.438234759999</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>2278.348034759999</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>2338.835634759999</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>2331.173034759999</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>2348.185534759999</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>2348.185534759999</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>2384.335791009999</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>2346.545091009999</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>2332.235891009999</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>2321.560491009999</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>2250.355027889999</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>2270.054227889999</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>2065.045127889999</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>1961.533527889999</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>1993.334627889999</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
